--- a/Behavioral Result/Behavioral Result.xlsx
+++ b/Behavioral Result/Behavioral Result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="10440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -189,27 +189,33 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Helvetica" panose="020B0604020202030204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+                <a:latin typeface="Helvetica" panose="020B0604020202030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t>Attend</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0">
+                <a:latin typeface="Helvetica" panose="020B0604020202030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t> vs. Unatted Accuracy</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:latin typeface="Helvetica" panose="020B0604020202030204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -227,14 +233,14 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Helvetica" panose="020B0604020202030204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -368,63 +374,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>Type</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -447,14 +396,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Helvetica" panose="020B0604020202030204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -479,12 +428,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -504,16 +448,20 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Helvetica" panose="020B0604020202030204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:latin typeface="Helvetica" panose="020B0604020202030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
                   <a:t>percentage</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                <a:endParaRPr lang="zh-CN" altLang="en-US">
+                  <a:latin typeface="Helvetica" panose="020B0604020202030204" pitchFamily="34" charset="0"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -538,7 +486,7 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Helvetica" panose="020B0604020202030204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -563,14 +511,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Helvetica" panose="020B0604020202030204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -1174,10 +1122,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>346075</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
@@ -1470,8 +1418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
